--- a/Data/EC/NIT-9016705121.xlsx
+++ b/Data/EC/NIT-9016705121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEA6399-3E80-4B3A-8EEC-6D7B4CDCF7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C117D9DB-F337-4060-8337-B552BC6A4B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5A4D1F41-936A-4B81-9164-AFC32022BD0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A9ECF3D7-A25B-4D9B-BE5A-08447CCD10B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128056761</t>
+  </si>
+  <si>
+    <t>DEIVIS DAVID ASENCIO ORTIZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1143371014</t>
   </si>
   <si>
@@ -80,31 +89,22 @@
     <t>CRISTIAN DAVID OCHOA ALVEAR</t>
   </si>
   <si>
-    <t>1002302820</t>
-  </si>
-  <si>
-    <t>BRENDA VALENTINA MEJIA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1052074880</t>
-  </si>
-  <si>
-    <t>LUZ NELLYS MONTERROZA TORRES</t>
-  </si>
-  <si>
-    <t>73162209</t>
-  </si>
-  <si>
-    <t>EDWIN JOSE CARRIASO LLERENA</t>
-  </si>
-  <si>
-    <t>1052526903</t>
-  </si>
-  <si>
-    <t>JESUS DAVID RODRIGUEZ HERNANDEZ</t>
+    <t>1002195062</t>
+  </si>
+  <si>
+    <t>DIEGO ANDRES HERNANDEZ CABARCAS</t>
+  </si>
+  <si>
+    <t>1002244060</t>
+  </si>
+  <si>
+    <t>CHRISTIAN ARIEL BALCEIRO MORANTE</t>
+  </si>
+  <si>
+    <t>1049454782</t>
+  </si>
+  <si>
+    <t>JAIME ANDRES QUIROZ GUERRERO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65128148-804F-D7EF-C1A2-8E4E5FB053E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7FB2E8-25EA-858B-CC88-33E010D64176}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD88323-E71A-4747-800C-3E1A71D2A6C4}">
-  <dimension ref="B2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE297F50-460D-4A5E-B919-D98DAF23FAE1}">
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -881,7 +881,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -976,7 +976,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>417170</v>
+        <v>355880</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>64000</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1113,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1130,121 +1130,75 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>74000</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1850000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="C21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="24">
         <v>56940</v>
       </c>
-      <c r="G21" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="G21" s="24">
         <v>1423500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="24">
-        <v>28470</v>
-      </c>
-      <c r="G23" s="24">
-        <v>711750</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
+      <c r="C26" s="32"/>
+      <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016705121.xlsx
+++ b/Data/EC/NIT-9016705121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C117D9DB-F337-4060-8337-B552BC6A4B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B95745-902C-4765-B7AA-3A2C9AB25211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A9ECF3D7-A25B-4D9B-BE5A-08447CCD10B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C37F067B-42F0-48B6-8D13-100342D51464}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,15 +65,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1128056761</t>
-  </si>
-  <si>
-    <t>DEIVIS DAVID ASENCIO ORTIZ</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
     <t>1143371014</t>
   </si>
   <si>
@@ -89,22 +80,31 @@
     <t>CRISTIAN DAVID OCHOA ALVEAR</t>
   </si>
   <si>
-    <t>1002195062</t>
-  </si>
-  <si>
-    <t>DIEGO ANDRES HERNANDEZ CABARCAS</t>
-  </si>
-  <si>
-    <t>1002244060</t>
-  </si>
-  <si>
-    <t>CHRISTIAN ARIEL BALCEIRO MORANTE</t>
-  </si>
-  <si>
-    <t>1049454782</t>
-  </si>
-  <si>
-    <t>JAIME ANDRES QUIROZ GUERRERO</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1052074880</t>
+  </si>
+  <si>
+    <t>LUZ NELLYS MONTERROZA TORRES</t>
+  </si>
+  <si>
+    <t>1002302820</t>
+  </si>
+  <si>
+    <t>BRENDA VALENTINA MEJIA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1052526903</t>
+  </si>
+  <si>
+    <t>JESUS DAVID RODRIGUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>73162209</t>
+  </si>
+  <si>
+    <t>EDWIN JOSE CARRIASO LLERENA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,22 +203,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7FB2E8-25EA-858B-CC88-33E010D64176}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1D596B-CDD1-F05A-D3CD-317D8AC97943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE297F50-460D-4A5E-B919-D98DAF23FAE1}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD434229-BB64-4E3A-ABE3-445353469D4B}">
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -881,7 +881,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -976,7 +976,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>355880</v>
+        <v>417170</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>64000</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1600000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1130,75 +1130,121 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>74000</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1850000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="18">
+        <v>28470</v>
+      </c>
+      <c r="G22" s="18">
+        <v>711750</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="24">
         <v>56940</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G23" s="24">
         <v>1423500</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
